--- a/Day_17/Solution.xlsx
+++ b/Day_17/Solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\AoC_2019\Day_17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4F2F0B-59EF-403A-ADBB-7DD9E6D2D428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BA656-F1BC-4A10-8136-8C0C0492509A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CF8B2260-E0B4-4310-8272-4875CBEC5DA6}"/>
   </bookViews>
